--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\boen\testBoEn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE8CF23-F0D2-44AA-B04F-186FB71070D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46AC214-AB35-49A5-B260-4749DF01B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4005" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{B090AFF6-13D2-4C6C-9A09-465C15A530D1}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>a</t>
+    <t>c</t>
   </si>
   <si>
-    <t>b</t>
+    <t>АА</t>
   </si>
   <si>
-    <t>c</t>
+    <t>ССС</t>
   </si>
 </sst>
 </file>
@@ -395,23 +395,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1E23BC-5813-4578-B575-BD75F7A967B2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -423,6 +417,14 @@
       </c>
       <c r="C2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
